--- a/biology/Médecine/Artère_épigastrique_superficielle/Artère_épigastrique_superficielle.xlsx
+++ b/biology/Médecine/Artère_épigastrique_superficielle/Artère_épigastrique_superficielle.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Art%C3%A8re_%C3%A9pigastrique_superficielle</t>
+          <t>Artère_épigastrique_superficielle</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'artère épigastrique superficielle (ou artère sous-cutanée abdominale ou artère tégumenteuse abdominale) est une artère qui nait au niveau du membre inférieur et  qui vascularise la paroi abdominale.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Art%C3%A8re_%C3%A9pigastrique_superficielle</t>
+          <t>Artère_épigastrique_superficielle</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,11 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'artère épigastrique superficielle nait de la face antérieure de l'artère fémorale , au niveau de l'aine, un peu au-dessous du ligament inguinal.
-Variation
-Chez 45 à 50 % des personnes, l'artère circonflexe iliaque superficielle et l'artère épigastrique superficielle proviennent d'un tronc commun issu de l'artère fémorale.
 </t>
         </is>
       </c>
@@ -526,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Art%C3%A8re_%C3%A9pigastrique_superficielle</t>
+          <t>Artère_épigastrique_superficielle</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -541,12 +553,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Trajet</t>
+          <t>Origine</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">L'artère épigastrique superficielle  traverse aussitôt le fascia cribriformis pour devenir superficielle. Elle ramifie dans le tissu sous-cutanée de la paroi abdominale jusqu'à l'ombilic et dans les nœuds lymphatiques inguinaux superficiels.
+          <t>Variation</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chez 45 à 50 % des personnes, l'artère circonflexe iliaque superficielle et l'artère épigastrique superficielle proviennent d'un tronc commun issu de l'artère fémorale.
 </t>
         </is>
       </c>
@@ -557,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Art%C3%A8re_%C3%A9pigastrique_superficielle</t>
+          <t>Artère_épigastrique_superficielle</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -572,10 +590,45 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Trajet</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'artère épigastrique superficielle  traverse aussitôt le fascia cribriformis pour devenir superficielle. Elle ramifie dans le tissu sous-cutanée de la paroi abdominale jusqu'à l'ombilic et dans les nœuds lymphatiques inguinaux superficiels.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Artère_épigastrique_superficielle</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Art%C3%A8re_%C3%A9pigastrique_superficielle</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Anastomoses</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">L'artère épigastrique superficielle s'anastomose avec des branches de l'artère iliaque externe : les artères épigastrique profonde et circonflexe iliaque profonde. Elle s'anastomose également avec l'artère glutéale supérieure branche de l'artère iliaque interne.
 </t>
